--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -1,54 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Compras\Documents\GitHub\patrimonio\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9DB6726F-7F1C-4D2D-818E-7AB9E1543086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{68479C90-1501-4F28-8216-B76190612E9F}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>atividades</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -381,27 +419,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7503894-8D9D-4D13-BF5A-BF1C200F7FF2}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col width="10.85546875" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>atividades</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EStou fazendo um testes aqui
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>
 </file>
--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -45,8 +47,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -487,6 +490,46 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/05/2025</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">afdfasfasfdasfas
+fasdfasdfsa
+fasdfasdfasfas
+fasdfasdfasdfsad
+fsadfsadfsadfsad
+fasdfasfdawsfds
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>21/12/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vamos fazer mais um teste aqui</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hoje estamos confirmando a obra</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -530,6 +530,16 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>copo de agua</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -540,6 +540,16 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>como vc esta agora</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.787401575" bottom="0.787401575" header="0.31496062" footer="0.31496062"/>
 </worksheet>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -1,46 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Planilha1"/>
+    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>atividades</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -58,31 +47,94 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -370,26 +422,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="10.862142857142858" customWidth="1" bestFit="1"/>
+    <col width="13.57642857142857" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
+    <col width="10.86214285714286" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>atividades</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Vamos iniciar este relatorio com muita vontade</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,16 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Funcionarios da contratada estavam usando os equipamento de proteção individual</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,16 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="5" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Outro teste aqui</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +481,16 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Reuniao realizada na sala diretoria tecnica com Laurence, Mario, MArcos e Leornado sobre a obra da ETA</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -1,109 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Atividades" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Medicao" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Atividades" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medicao" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t xml:space="preserve">data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">atividades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vamos iniciar este relatorio com muita vontade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funcionarios da contratada estavam usando os equipamento de proteção individual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Outro teste aqui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reuniao realizada na sala diretoria tecnica com Laurence, Mario, MArcos e Leornado sobre a obra da ETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contrato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nro da medicao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data medicao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nota fiscal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data nf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data pagto</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="4">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -111,57 +62,117 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -337,119 +348,192 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="10.86"/>
+    <col width="13.58" customWidth="1" style="4" min="1" max="1"/>
+    <col width="10.86" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="1" ht="18.75" customHeight="1" s="6">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>atividades</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1" s="6">
+      <c r="A2" s="7" t="n">
         <v>45755</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Vamos iniciar este relatorio com muita vontade</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1" s="6">
+      <c r="A3" s="7" t="n">
         <v>45756</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Funcionarios da contratada estavam usando os equipamento de proteção individual</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1" s="6">
+      <c r="A4" s="7" t="n">
         <v>45758</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Outro teste aqui</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="6">
+      <c r="A5" s="7" t="n">
         <v>45756</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Reuniao realizada na sala diretoria tecnica com Laurence, Mario, MArcos e Leornado sobre a obra da ETA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>qualquer coisa aqui</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.51"/>
+    <col width="14.51" customWidth="1" style="5" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>12</v>
+    <row r="1" ht="12.8" customHeight="1" s="6">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>contrato</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>nro da medicao</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>data medicao</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>valor</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>nota fiscal</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>data nf</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>data pagto</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>019/2025</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>45757</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>187000</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>15/12/2026</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>16/12/2026</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12 &amp;KffffffPágina &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -427,6 +427,16 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="8" t="n">
+        <v>45757</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>todos aqui</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -440,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -489,12 +499,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>019/2025</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>56</t>
         </is>
@@ -502,22 +512,57 @@
       <c r="C2" s="8" t="n">
         <v>45757</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>187000</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>458</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>15/12/2026</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
+        <is>
+          <t>16/12/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>019/2025</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>45757</v>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>187000</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>15/12/2026</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>16/12/2026</t>
         </is>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -431,9 +431,22 @@
       <c r="A7" s="8" t="n">
         <v>45757</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>todos aqui</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reuniao realizada na sala da diretora 
+PArticipantes: Mario Valente, Marcos, Laurence  e Leornado
+Assunto:
+</t>
         </is>
       </c>
     </row>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -441,12 +441,32 @@
       <c r="A8" s="8" t="n">
         <v>45758</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">Reuniao realizada na sala da diretora 
 PArticipantes: Mario Valente, Marcos, Laurence  e Leornado
 Assunto:
 </t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>Acompanhamento da obra da vila operaria</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hoje ja é terca feira</t>
         </is>
       </c>
     </row>
@@ -463,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
@@ -578,6 +598,41 @@
       <c r="G3" s="5" t="inlineStr">
         <is>
           <t>16/12/2026</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>018/2024</t>
+        </is>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="n">
+        <v>45774</v>
+      </c>
+      <c r="D4" s="5" t="inlineStr">
+        <is>
+          <t>15000</t>
+        </is>
+      </c>
+      <c r="E4" s="5" t="inlineStr">
+        <is>
+          <t>9874</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="G4" s="5" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
         </is>
       </c>
     </row>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Atividades" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medicao" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Atividades" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Medicao" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -464,9 +464,19 @@
       <c r="A10" s="8" t="n">
         <v>45776</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Hoje ja é terca feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Visita técnica na obra da vila operaria</t>
         </is>
       </c>
     </row>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Atividades" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Medicao" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Atividades" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medicao" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -474,10 +474,25 @@
       <c r="A11" s="8" t="n">
         <v>45775</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Visita técnica na obra da vila operaria</t>
         </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>150000</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="n">
+        <v>45788</v>
       </c>
     </row>
   </sheetData>

--- a/relatorio.xlsx
+++ b/relatorio.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Atividades" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Medicao" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Atividades" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Medicao" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
@@ -353,7 +353,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -481,18 +481,48 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="5" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>150000</t>
         </is>
       </c>
       <c r="C12" s="8" t="n">
         <v>45788</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>vamos testar aqui</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>aqui deu certo</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>temos que realizar a reprogramacao deste contrato</t>
+        </is>
       </c>
     </row>
   </sheetData>
